--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\Telegram Desktop\27.06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/crossing_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691BB18A-34D3-BF42-AC5E-E0FD6190A3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16560"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Переправы" sheetId="1" r:id="rId1"/>
-    <sheet name="Утреннее сообщение" sheetId="3" r:id="rId2"/>
+    <sheet name="Камеры" sheetId="1" r:id="rId1"/>
+    <sheet name="Настройки переправы" sheetId="3" r:id="rId2"/>
     <sheet name="Статические сообщения" sheetId="4" r:id="rId3"/>
     <sheet name="Сообщения" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Название</t>
   </si>
@@ -30,30 +31,9 @@
     <t>Ссылка на трансляцию</t>
   </si>
   <si>
-    <t>Первая переправа</t>
-  </si>
-  <si>
     <t>https://google.com</t>
   </si>
   <si>
-    <t>Переправа 2</t>
-  </si>
-  <si>
-    <t>Переправа 3</t>
-  </si>
-  <si>
-    <t>Переправа 4</t>
-  </si>
-  <si>
-    <t>Шаблонный текст</t>
-  </si>
-  <si>
-    <t>Тип 1</t>
-  </si>
-  <si>
-    <t>Тип 2</t>
-  </si>
-  <si>
     <t>Тип сообщения</t>
   </si>
   <si>
@@ -84,12 +64,6 @@
     <t>На линии в связи с ограничением {число паромов} паромов.</t>
   </si>
   <si>
-    <t>Доброе утро. Сегодня на переправе "{имя переправы}" работают {число паромов} паромов</t>
-  </si>
-  <si>
-    <t>На переправе {имя переправы} сегодня {число паромов} паромой</t>
-  </si>
-  <si>
     <t>Стартовое сообщение пользователя</t>
   </si>
   <si>
@@ -141,14 +115,38 @@
     <t>Текст</t>
   </si>
   <si>
-    <t>Переправа 5</t>
+    <t>Берег Салехард</t>
+  </si>
+  <si>
+    <t>Берег Лабытнанги</t>
+  </si>
+  <si>
+    <t>КПП Салехард</t>
+  </si>
+  <si>
+    <t>Режим работы</t>
+  </si>
+  <si>
+    <t>0 - летний, 1 - зимний, 2 - межсезонье</t>
+  </si>
+  <si>
+    <t>Авиасообщение ссылка</t>
+  </si>
+  <si>
+    <t>Маршрутный транспорт ссылка</t>
+  </si>
+  <si>
+    <t>https://ya.ru/</t>
+  </si>
+  <si>
+    <t>КПП Лабытнанги</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +178,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,11 +206,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -521,21 +526,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,143 +548,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{CF8B9386-3AF8-A845-B956-3D71C3A36D0B}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A5CFE4D4-0788-0B44-B746-33EB47918BCD}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{1D0EF3C9-CCCC-5B42-97DA-BD9AD27AF149}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="95.125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F979ABC2-8AFB-534A-80AA-3EFC5D7A2246}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{1D068E19-C149-574D-BFE6-FAD2754E57E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.125" customWidth="1"/>
-    <col min="2" max="2" width="117.875" customWidth="1"/>
+    <col min="1" max="1" width="56.1640625" customWidth="1"/>
+    <col min="2" max="2" width="117.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -688,84 +702,84 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
     <col min="3" max="3" width="158.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/crossing_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691BB18A-34D3-BF42-AC5E-E0FD6190A3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC78A2A-99BE-6146-B3E4-6C315F3129ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Камеры" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Название</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>КПП Лабытнанги</t>
+  </si>
+  <si>
+    <t>https://dtidh.yanao.ru/activity/2908/</t>
+  </si>
+  <si>
+    <t>https://help-prod-s3.yanao.ru/public-pereprava/lbt.jpg</t>
   </si>
 </sst>
 </file>
@@ -529,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,7 +559,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -561,7 +567,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -569,7 +575,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -582,10 +588,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CF8B9386-3AF8-A845-B956-3D71C3A36D0B}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{A5CFE4D4-0788-0B44-B746-33EB47918BCD}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{1D0EF3C9-CCCC-5B42-97DA-BD9AD27AF149}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{1D0EF3C9-CCCC-5B42-97DA-BD9AD27AF149}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -595,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/crossing_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC78A2A-99BE-6146-B3E4-6C315F3129ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A076D0E-B003-F444-8E5C-15C2B69CC234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Камеры" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Название</t>
   </si>
@@ -31,39 +31,12 @@
     <t>Ссылка на трансляцию</t>
   </si>
   <si>
-    <t>https://google.com</t>
-  </si>
-  <si>
     <t>Тип сообщения</t>
   </si>
   <si>
-    <t>Внимание! Переправа {имя переправы} будет закрыта {дата} в {время} по причине {причина}</t>
-  </si>
-  <si>
     <t>Текст сообщения</t>
   </si>
   <si>
-    <t>Сообщение о закрытии переправы</t>
-  </si>
-  <si>
-    <t>Сообщение об открытии переправы</t>
-  </si>
-  <si>
-    <t>Пробный пассажирский рейс</t>
-  </si>
-  <si>
-    <t>Сообщение об ограничении</t>
-  </si>
-  <si>
-    <t>Внимание! Переправа {имя переправы} будет открыта {дата} в {время}. На линии будет {число паромов} паромов.</t>
-  </si>
-  <si>
-    <t>Пробный пассажирский рейс отправится {дата} в {время} по направлению {маршрут}</t>
-  </si>
-  <si>
-    <t>На линии в связи с ограничением {число паромов} паромов.</t>
-  </si>
-  <si>
     <t>Стартовое сообщение пользователя</t>
   </si>
   <si>
@@ -146,13 +119,115 @@
   </si>
   <si>
     <t>https://help-prod-s3.yanao.ru/public-pereprava/lbt.jpg</t>
+  </si>
+  <si>
+    <t>https://lk-b2b.camera.rt.ru/sl/VL3XWJ0sL</t>
+  </si>
+  <si>
+    <t>Сезон
+winter- зимний
+summer летний 
+interseason - межсезонье</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>interseason</t>
+  </si>
+  <si>
+    <t>Движение по ледовой переправе Салехард-Лабытнанги закрыто из-за неблагоприятных погодных условий.</t>
+  </si>
+  <si>
+    <t>Движение по ледовой переправе Салехард-Лабытнанги закрыто.</t>
+  </si>
+  <si>
+    <t>Движение открыто</t>
+  </si>
+  <si>
+    <t>Закрыто</t>
+  </si>
+  <si>
+    <t>Переправа работает в обычном режиме, на линии _ парома(ов).</t>
+  </si>
+  <si>
+    <t>Движение по ледовой переправе Салехард-Лабытнанги открыто для автомобилей массой до _ тонн.</t>
+  </si>
+  <si>
+    <t>Переправа работает в ограниченном режиме. На линии _ парома(ов).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Движение паромов приостановлено. </t>
+  </si>
+  <si>
+    <t>Пробный рейс для пассажиров (без авто)  в _.</t>
+  </si>
+  <si>
+    <t>Пробный рейс для пассажиров и легковых автомобилей в _.</t>
+  </si>
+  <si>
+    <t>Ледовая переправа закрыта. Перевозку пассажиров осуществляют суда на воздушной подушке.</t>
+  </si>
+  <si>
+    <t>Суда на воздушной подушке временно приостановили свою работу по погодным условиям.</t>
+  </si>
+  <si>
+    <t>Суда на воздушной подушке временно приостановили свою работу.</t>
+  </si>
+  <si>
+    <t>Работает в обычном режиме</t>
+  </si>
+  <si>
+    <t>Работает в ограниченном режиме</t>
+  </si>
+  <si>
+    <t>Движение приостановлено</t>
+  </si>
+  <si>
+    <t>Пробный рейс для пассажиров</t>
+  </si>
+  <si>
+    <t>Пробный рейс для авто</t>
+  </si>
+  <si>
+    <t>Закрыто из-за погоды</t>
+  </si>
+  <si>
+    <t>Переправа закрыта. Работает подушка</t>
+  </si>
+  <si>
+    <t>Подушка закрыта из-за погоды</t>
+  </si>
+  <si>
+    <t>Подушка закрыта</t>
+  </si>
+  <si>
+    <t>Кнопка (название)</t>
+  </si>
+  <si>
+    <t>Кнопки для подстановки (через запятую)</t>
+  </si>
+  <si>
+    <t>30 тонн, 25 тонн, 15 тонн, 15 тонн, 5 тонн, 3.5 тонны</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>время</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,24 +246,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1A1A1A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,8 +285,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -535,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,40 +627,37 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{1D0EF3C9-CCCC-5B42-97DA-BD9AD27AF149}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -599,7 +667,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,29 +679,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -647,56 +715,168 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.1640625" customWidth="1"/>
-    <col min="2" max="2" width="117.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="117.83203125" customWidth="1"/>
+    <col min="4" max="4" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -721,68 +901,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/crossing_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A076D0E-B003-F444-8E5C-15C2B69CC234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C1D24-60D8-E546-B7CC-73A781846E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Камеры" sheetId="1" r:id="rId1"/>
     <sheet name="Настройки переправы" sheetId="3" r:id="rId2"/>
-    <sheet name="Статические сообщения" sheetId="4" r:id="rId3"/>
+    <sheet name="Шаблоны уведомлений" sheetId="4" r:id="rId3"/>
     <sheet name="Сообщения" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Название</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Маршрутный транспорт ссылка</t>
   </si>
   <si>
-    <t>https://ya.ru/</t>
-  </si>
-  <si>
     <t>КПП Лабытнанги</t>
   </si>
   <si>
@@ -124,110 +121,135 @@
     <t>https://lk-b2b.camera.rt.ru/sl/VL3XWJ0sL</t>
   </si>
   <si>
+    <t>Движение по ледовой переправе Салехард-Лабытнанги закрыто из-за неблагоприятных погодных условий.</t>
+  </si>
+  <si>
+    <t>Движение по ледовой переправе Салехард-Лабытнанги закрыто.</t>
+  </si>
+  <si>
+    <t>Движение открыто</t>
+  </si>
+  <si>
+    <t>Закрыто</t>
+  </si>
+  <si>
+    <t>Переправа работает в обычном режиме, на линии _ парома(ов).</t>
+  </si>
+  <si>
+    <t>Движение по ледовой переправе Салехард-Лабытнанги открыто для автомобилей массой до _ тонн.</t>
+  </si>
+  <si>
+    <t>Переправа работает в ограниченном режиме. На линии _ парома(ов).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Движение паромов приостановлено. </t>
+  </si>
+  <si>
+    <t>Пробный рейс для пассажиров (без авто)  в _.</t>
+  </si>
+  <si>
+    <t>Пробный рейс для пассажиров и легковых автомобилей в _.</t>
+  </si>
+  <si>
+    <t>Ледовая переправа закрыта. Перевозку пассажиров осуществляют суда на воздушной подушке.</t>
+  </si>
+  <si>
+    <t>Суда на воздушной подушке временно приостановили свою работу по погодным условиям.</t>
+  </si>
+  <si>
+    <t>Суда на воздушной подушке временно приостановили свою работу.</t>
+  </si>
+  <si>
+    <t>Работает в обычном режиме</t>
+  </si>
+  <si>
+    <t>Работает в ограниченном режиме</t>
+  </si>
+  <si>
+    <t>Движение приостановлено</t>
+  </si>
+  <si>
+    <t>Пробный рейс для пассажиров</t>
+  </si>
+  <si>
+    <t>Пробный рейс для авто</t>
+  </si>
+  <si>
+    <t>Закрыто из-за погоды</t>
+  </si>
+  <si>
+    <t>Переправа закрыта. Работает подушка</t>
+  </si>
+  <si>
+    <t>Подушка закрыта из-за погоды</t>
+  </si>
+  <si>
+    <t>Подушка закрыта</t>
+  </si>
+  <si>
+    <t>Кнопка (название)</t>
+  </si>
+  <si>
+    <t>Кнопки для подстановки (через запятую)</t>
+  </si>
+  <si>
+    <t>30 тонн, 25 тонн, 15 тонн, 15 тонн, 5 тонн, 3.5 тонны</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>Аэропорт Салехард онлайн-табло</t>
+  </si>
+  <si>
+    <t>https://slyport.ru/passengers/information/timetable/</t>
+  </si>
+  <si>
+    <t>Название кнопки</t>
+  </si>
+  <si>
+    <t>Кнопки для сообщения "Текущая информация о переправе"</t>
+  </si>
+  <si>
+    <t>Режим работы переправы</t>
+  </si>
+  <si>
+    <t>Ссылка или текст сообщения</t>
+  </si>
+  <si>
+    <t>https://akyamal.ru</t>
+  </si>
+  <si>
+    <t>https://dtidh.yanao.ru/documents/active/404424/</t>
+  </si>
+  <si>
+    <t>Контакты</t>
+  </si>
+  <si>
+    <t>На каком режиме работает (0, 1 или 2)</t>
+  </si>
+  <si>
+    <t>Аэропорт Салехард: +7-349-22-2-52-51, 2-52-52 (доб. 2201).
+Вертолётная площадка Лабытнанги: +7-908-860-84-80.</t>
+  </si>
+  <si>
     <t>Сезон
-winter- зимний
-summer летний 
-interseason - межсезонье</t>
-  </si>
-  <si>
-    <t>winter</t>
-  </si>
-  <si>
-    <t>summer</t>
-  </si>
-  <si>
-    <t>interseason</t>
-  </si>
-  <si>
-    <t>Движение по ледовой переправе Салехард-Лабытнанги закрыто из-за неблагоприятных погодных условий.</t>
-  </si>
-  <si>
-    <t>Движение по ледовой переправе Салехард-Лабытнанги закрыто.</t>
-  </si>
-  <si>
-    <t>Движение открыто</t>
-  </si>
-  <si>
-    <t>Закрыто</t>
-  </si>
-  <si>
-    <t>Переправа работает в обычном режиме, на линии _ парома(ов).</t>
-  </si>
-  <si>
-    <t>Движение по ледовой переправе Салехард-Лабытнанги открыто для автомобилей массой до _ тонн.</t>
-  </si>
-  <si>
-    <t>Переправа работает в ограниченном режиме. На линии _ парома(ов).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Движение паромов приостановлено. </t>
-  </si>
-  <si>
-    <t>Пробный рейс для пассажиров (без авто)  в _.</t>
-  </si>
-  <si>
-    <t>Пробный рейс для пассажиров и легковых автомобилей в _.</t>
-  </si>
-  <si>
-    <t>Ледовая переправа закрыта. Перевозку пассажиров осуществляют суда на воздушной подушке.</t>
-  </si>
-  <si>
-    <t>Суда на воздушной подушке временно приостановили свою работу по погодным условиям.</t>
-  </si>
-  <si>
-    <t>Суда на воздушной подушке временно приостановили свою работу.</t>
-  </si>
-  <si>
-    <t>Работает в обычном режиме</t>
-  </si>
-  <si>
-    <t>Работает в ограниченном режиме</t>
-  </si>
-  <si>
-    <t>Движение приостановлено</t>
-  </si>
-  <si>
-    <t>Пробный рейс для пассажиров</t>
-  </si>
-  <si>
-    <t>Пробный рейс для авто</t>
-  </si>
-  <si>
-    <t>Закрыто из-за погоды</t>
-  </si>
-  <si>
-    <t>Переправа закрыта. Работает подушка</t>
-  </si>
-  <si>
-    <t>Подушка закрыта из-за погоды</t>
-  </si>
-  <si>
-    <t>Подушка закрыта</t>
-  </si>
-  <si>
-    <t>Кнопка (название)</t>
-  </si>
-  <si>
-    <t>Кнопки для подстановки (через запятую)</t>
-  </si>
-  <si>
-    <t>30 тонн, 25 тонн, 15 тонн, 15 тонн, 5 тонн, 3.5 тонны</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5, 6</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4</t>
-  </si>
-  <si>
-    <t>время</t>
+0 - летний
+1 - зимний
+2 - межсезонье</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +281,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,6 +333,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -604,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -638,7 +689,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,11 +702,14 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,50 +718,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="65.33203125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
+    </row>
+    <row r="9" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F979ABC2-8AFB-534A-80AA-3EFC5D7A2246}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{1D068E19-C149-574D-BFE6-FAD2754E57E7}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{23924B89-1884-B34F-AB00-8FE73B4CA642}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{F762FC58-CD1D-2B4E-972B-0889063723C0}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{2E9A36F5-78A3-584A-9B9D-D7C98FB098EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -717,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -731,152 +865,152 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -888,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/crossing_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C1D24-60D8-E546-B7CC-73A781846E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54821066-0AA1-1D46-91DD-95C70C5336A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Камеры" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>Название</t>
   </si>
@@ -243,13 +243,16 @@
 0 - летний
 1 - зимний
 2 - межсезонье</t>
+  </si>
+  <si>
+    <t>Номер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,12 +269,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -303,6 +300,28 @@
       <name val="Calibri (Основной текст)"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -325,21 +344,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -655,61 +676,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="11" style="7"/>
+    <col min="2" max="2" width="21.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -732,38 +769,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -804,7 +841,7 @@
       <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C8">
@@ -815,7 +852,7 @@
       <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C9">
@@ -826,7 +863,7 @@
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C10">
@@ -863,17 +900,17 @@
     <col min="4" max="4" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1022,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/crossing_bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54821066-0AA1-1D46-91DD-95C70C5336A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Камеры" sheetId="1" r:id="rId1"/>
@@ -43,9 +42,6 @@
     <t>Стартовое сообщение модератора</t>
   </si>
   <si>
-    <t>Вас приветствует официальный бот Переправы Салехард - Лабытнанги. Выберите необходимый пункт \"Меню\" или отправьте  команду /menu всли меню не отобразилось:</t>
-  </si>
-  <si>
     <t>Выберите тип сообщения:</t>
   </si>
   <si>
@@ -121,12 +117,6 @@
     <t>https://lk-b2b.camera.rt.ru/sl/VL3XWJ0sL</t>
   </si>
   <si>
-    <t>Движение по ледовой переправе Салехард-Лабытнанги закрыто из-за неблагоприятных погодных условий.</t>
-  </si>
-  <si>
-    <t>Движение по ледовой переправе Салехард-Лабытнанги закрыто.</t>
-  </si>
-  <si>
     <t>Движение открыто</t>
   </si>
   <si>
@@ -134,9 +124,6 @@
   </si>
   <si>
     <t>Переправа работает в обычном режиме, на линии _ парома(ов).</t>
-  </si>
-  <si>
-    <t>Движение по ледовой переправе Салехард-Лабытнанги открыто для автомобилей массой до _ тонн.</t>
   </si>
   <si>
     <t>Переправа работает в ограниченном режиме. На линии _ парома(ов).</t>
@@ -247,12 +234,24 @@
   <si>
     <t>Номер</t>
   </si>
+  <si>
+    <t>Движение по ледовой переправе Салехард - Лабытнанги закрыто из-за неблагоприятных погодных условий.</t>
+  </si>
+  <si>
+    <t>Движение по ледовой переправе Салехард - Лабытнанги закрыто.</t>
+  </si>
+  <si>
+    <t>Движение по ледовой переправе Салехард - Лабытнанги открыто для автомобилей массой до _.</t>
+  </si>
+  <si>
+    <t>Вас приветствует официальный бот Переправы Салехард - Лабытнанги. Выберите необходимый пункт \"Меню\" или отправьте  команду /menu, если меню не отобразилось:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,12 +354,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -675,78 +674,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11" style="7"/>
-    <col min="2" max="2" width="21.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="7"/>
+    <col min="1" max="1" width="11" style="6"/>
+    <col min="2" max="2" width="21.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="49.875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:3">
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -754,120 +753,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="2" max="2" width="65.375" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.95" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="63.95" customHeight="1">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="63.95" customHeight="1">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="63.95" customHeight="1">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -876,178 +875,178 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{23924B89-1884-B34F-AB00-8FE73B4CA642}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{F762FC58-CD1D-2B4E-972B-0889063723C0}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{2E9A36F5-78A3-584A-9B9D-D7C98FB098EF}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
-    <col min="3" max="3" width="117.83203125" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.125" customWidth="1"/>
+    <col min="3" max="3" width="117.875" customWidth="1"/>
+    <col min="4" max="4" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="81" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.95" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.95" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.95" customHeight="1">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.95" customHeight="1">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.95" customHeight="1">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.95" customHeight="1">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27.95" customHeight="1">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.95" customHeight="1">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27.95" customHeight="1">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27.95" customHeight="1">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1056,84 +1055,84 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
     <col min="3" max="3" width="158.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/crossing_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545ABEAA-5552-6E47-BDD9-F1FEBA91587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Камеры" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Название</t>
   </si>
@@ -106,12 +107,6 @@
   </si>
   <si>
     <t>КПП Лабытнанги</t>
-  </si>
-  <si>
-    <t>https://dtidh.yanao.ru/activity/2908/</t>
-  </si>
-  <si>
-    <t>https://help-prod-s3.yanao.ru/public-pereprava/lbt.jpg</t>
   </si>
   <si>
     <t>https://lk-b2b.camera.rt.ru/sl/VL3XWJ0sL</t>
@@ -246,12 +241,21 @@
   <si>
     <t>Вас приветствует официальный бот Переправы Салехард - Лабытнанги. Выберите необходимый пункт \"Меню\" или отправьте  команду /menu, если меню не отобразилось:</t>
   </si>
+  <si>
+    <t>https://lk-b2b.camera.rt.ru/sl/18hTBd8-0</t>
+  </si>
+  <si>
+    <t>https://lk-b2b.camera.rt.ru/sl/zOzfnNqur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://lk-b2b.camera.rt.ru/sl/o27T82Kv9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -674,24 +678,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="6"/>
-    <col min="2" max="2" width="21.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="49.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="6" customWidth="1"/>
     <col min="4" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -700,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -708,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -719,10 +723,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -730,10 +734,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -741,10 +745,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="7"/>
     </row>
   </sheetData>
@@ -753,28 +757,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="65.375" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -785,85 +789,85 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1">
+    <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" ht="18.95" customHeight="1">
+    <row r="4" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="63.95" customHeight="1">
+    <row r="8" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="63.95" customHeight="1">
+    <row r="9" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63.95" customHeight="1">
+    <row r="10" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -875,178 +879,178 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="27.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="46.125" customWidth="1"/>
-    <col min="3" max="3" width="117.875" customWidth="1"/>
-    <col min="4" max="4" width="72.375" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="117.83203125" customWidth="1"/>
+    <col min="4" max="4" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="81" customHeight="1">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27.95" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27.95" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27.95" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27.95" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.95" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27.95" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27.95" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.95" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27.95" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27.95" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1055,21 +1059,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
     <col min="3" max="3" width="158.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1099,10 +1103,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/crossing_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545ABEAA-5552-6E47-BDD9-F1FEBA91587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5C8AFF-0E48-164D-9014-71ED3F666399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,7 +706,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>20</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>21</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>27</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/crossing_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5C8AFF-0E48-164D-9014-71ED3F666399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3EB68-84A3-EA41-9FC9-A13278A2D0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/crossing_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3EB68-84A3-EA41-9FC9-A13278A2D0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D9077F-6B5E-D346-9C97-8EBA1200C3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Камеры" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Название</t>
   </si>
@@ -100,12 +100,6 @@
     <t>0 - летний, 1 - зимний, 2 - межсезонье</t>
   </si>
   <si>
-    <t>Авиасообщение ссылка</t>
-  </si>
-  <si>
-    <t>Маршрутный транспорт ссылка</t>
-  </si>
-  <si>
     <t>КПП Лабытнанги</t>
   </si>
   <si>
@@ -118,30 +112,15 @@
     <t>Закрыто</t>
   </si>
   <si>
-    <t>Переправа работает в обычном режиме, на линии _ парома(ов).</t>
-  </si>
-  <si>
     <t>Переправа работает в ограниченном режиме. На линии _ парома(ов).</t>
   </si>
   <si>
-    <t xml:space="preserve">Движение паромов приостановлено. </t>
-  </si>
-  <si>
     <t>Пробный рейс для пассажиров (без авто)  в _.</t>
   </si>
   <si>
     <t>Пробный рейс для пассажиров и легковых автомобилей в _.</t>
   </si>
   <si>
-    <t>Ледовая переправа закрыта. Перевозку пассажиров осуществляют суда на воздушной подушке.</t>
-  </si>
-  <si>
-    <t>Суда на воздушной подушке временно приостановили свою работу по погодным условиям.</t>
-  </si>
-  <si>
-    <t>Суда на воздушной подушке временно приостановили свою работу.</t>
-  </si>
-  <si>
     <t>Работает в обычном режиме</t>
   </si>
   <si>
@@ -166,18 +145,12 @@
     <t>Подушка закрыта из-за погоды</t>
   </si>
   <si>
-    <t>Подушка закрыта</t>
-  </si>
-  <si>
     <t>Кнопка (название)</t>
   </si>
   <si>
     <t>Кнопки для подстановки (через запятую)</t>
   </si>
   <si>
-    <t>30 тонн, 25 тонн, 15 тонн, 15 тонн, 5 тонн, 3.5 тонны</t>
-  </si>
-  <si>
     <t>1, 2, 3, 4, 5, 6</t>
   </si>
   <si>
@@ -187,12 +160,6 @@
     <t>время</t>
   </si>
   <si>
-    <t>Аэропорт Салехард онлайн-табло</t>
-  </si>
-  <si>
-    <t>https://slyport.ru/passengers/information/timetable/</t>
-  </si>
-  <si>
     <t>Название кнопки</t>
   </si>
   <si>
@@ -205,20 +172,10 @@
     <t>Ссылка или текст сообщения</t>
   </si>
   <si>
-    <t>https://akyamal.ru</t>
-  </si>
-  <si>
-    <t>https://dtidh.yanao.ru/documents/active/404424/</t>
-  </si>
-  <si>
     <t>Контакты</t>
   </si>
   <si>
     <t>На каком режиме работает (0, 1 или 2)</t>
-  </si>
-  <si>
-    <t>Аэропорт Салехард: +7-349-22-2-52-51, 2-52-52 (доб. 2201).
-Вертолётная площадка Лабытнанги: +7-908-860-84-80.</t>
   </si>
   <si>
     <t>Сезон
@@ -230,15 +187,6 @@
     <t>Номер</t>
   </si>
   <si>
-    <t>Движение по ледовой переправе Салехард - Лабытнанги закрыто из-за неблагоприятных погодных условий.</t>
-  </si>
-  <si>
-    <t>Движение по ледовой переправе Салехард - Лабытнанги закрыто.</t>
-  </si>
-  <si>
-    <t>Движение по ледовой переправе Салехард - Лабытнанги открыто для автомобилей массой до _.</t>
-  </si>
-  <si>
     <t>Вас приветствует официальный бот Переправы Салехард - Лабытнанги. Выберите необходимый пункт \"Меню\" или отправьте  команду /menu, если меню не отобразилось:</t>
   </si>
   <si>
@@ -249,6 +197,49 @@
   </si>
   <si>
     <t xml:space="preserve"> https://lk-b2b.camera.rt.ru/sl/o27T82Kv9</t>
+  </si>
+  <si>
+    <t>Диспетчерская служба перевозчика: +7-912-420-40-46
+Вертолётные перевозки пассажиров 
+Онлайн-табло (http://slyport.ru/passengers/information/timetable/) Аэропорт Салехард  
+Онлайн (https://akyamal.ru/) продажа билетов
+Аэропорт Салехард: +7-349-22-2-52-51, 2-52-52 (доб. 2201)
+Вертолётная площадка Лабытнанги: +7-908-860-84-80</t>
+  </si>
+  <si>
+    <t>🟢 Движение открыто для транспорта массой до _.</t>
+  </si>
+  <si>
+    <t>⛔️ Движение паромов приостановлено</t>
+  </si>
+  <si>
+    <t>🟢 Открыта перевозка транспортных средств 
+На линии работают _ парома(ов).</t>
+  </si>
+  <si>
+    <t>Пассажиров перевозят суда на воздушной подушке
+*Для уточнения информации 👇кнопка "Контакты"</t>
+  </si>
+  <si>
+    <t>❗️ Суда на воздушной подушке приостановили работу. 
+*Для уточнения информации 👇кнопка "Контакты"</t>
+  </si>
+  <si>
+    <t>30 тонн, 25 тонн, 15 тонн, 5 тонн, 3.5 тонны</t>
+  </si>
+  <si>
+    <t>⛔️ Движение закрыто по погодным условиям.</t>
+  </si>
+  <si>
+    <t>⛔️ Движение закрыто</t>
+  </si>
+  <si>
+    <t>Диспетчерская служба перевозчика: +7-912-420-40-46
+Вертолётные перевозки пассажиров 
+[Онлайн-табло](http://slyport.ru/passengers/information/timetable/) Аэропорт Салехард  
+[Онлайн](https://akyamal.ru/) продажа билетов
+Аэропорт Салехард: +7-349-22-2-52-51, 2-52-52 (доб. 2201)
+Вертолётная площадка Лабытнанги: +7-908-860-84-80</t>
   </si>
 </sst>
 </file>
@@ -349,7 +340,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -361,6 +351,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,75 +674,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="6"/>
-    <col min="2" max="2" width="21.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="6"/>
+    <col min="1" max="1" width="11" style="5"/>
+    <col min="2" max="2" width="21.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>71</v>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>72</v>
+      <c r="C3" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>73</v>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -758,10 +751,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -773,103 +766,59 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10">
         <v>0</v>
       </c>
     </row>
@@ -878,21 +827,16 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -903,18 +847,18 @@
     <col min="4" max="4" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>49</v>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -922,13 +866,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -936,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -947,10 +891,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -958,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -972,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -986,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -997,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -1011,24 +955,27 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -1036,21 +983,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
